--- a/data/trans_dic/P16-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16-Edad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1663784470854288</v>
+        <v>0.1673584268181123</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2360074943972071</v>
+        <v>0.2351871203756632</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1805605375056232</v>
+        <v>0.1813279772011069</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1870691797547225</v>
+        <v>0.1880477950408637</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.339808169861087</v>
+        <v>0.336000541755174</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.4426611622724531</v>
+        <v>0.4398630983575088</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3827580879229807</v>
+        <v>0.3857614475425348</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.3160154897926932</v>
+        <v>0.317338058543195</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2593842626795683</v>
+        <v>0.2598137417312598</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.3470420220267156</v>
+        <v>0.3429513536958427</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.290266329772669</v>
+        <v>0.2904929860044911</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2623226990378346</v>
+        <v>0.2637970549538778</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2380722386415663</v>
+        <v>0.2384086401220704</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3208637128527367</v>
+        <v>0.3226504604218995</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2691601390633257</v>
+        <v>0.2651669167175925</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3294183560900442</v>
+        <v>0.3308789474764433</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4235801152993726</v>
+        <v>0.4270464351512412</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.5338951547955232</v>
+        <v>0.5381306639467821</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4778963530633421</v>
+        <v>0.4807335047820394</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.4513026348459769</v>
+        <v>0.4597645932898258</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3158654373329474</v>
+        <v>0.3191985756652329</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.41303219570708</v>
+        <v>0.4088089377442783</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3570216530030819</v>
+        <v>0.3565921850483989</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3656024476057339</v>
+        <v>0.3638279429334687</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1709435787324925</v>
+        <v>0.1709504635038611</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2939094732249884</v>
+        <v>0.2929172762719023</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2872970682054846</v>
+        <v>0.2859260731303261</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2702103612281318</v>
+        <v>0.2717287866853927</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3945252043728122</v>
+        <v>0.3974944605949042</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.5459633206457538</v>
+        <v>0.5446744758220327</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.433802018354955</v>
+        <v>0.4322013538623677</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.3924175374036822</v>
+        <v>0.3867331780851558</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2835479601545002</v>
+        <v>0.2848202166884463</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.4188095702128565</v>
+        <v>0.4201553926091945</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.3674121439452394</v>
+        <v>0.3681014453281131</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.3476047418234882</v>
+        <v>0.3478350821801786</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2332764126086583</v>
+        <v>0.2353209265972727</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.367494076306587</v>
+        <v>0.3682339715058601</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3630537724972324</v>
+        <v>0.3650734177296051</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.38356907941369</v>
+        <v>0.3883307917878229</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4768677034051408</v>
+        <v>0.4782837782653926</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.6204363103372464</v>
+        <v>0.628466577232364</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.5142076526728885</v>
+        <v>0.5148635741774487</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.4849759901847999</v>
+        <v>0.4828167974743491</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3350671476414607</v>
+        <v>0.335891163998403</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.4767087116344618</v>
+        <v>0.4770999191602734</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.4291771771308406</v>
+        <v>0.4270867540075126</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.4221595120407292</v>
+        <v>0.421264946262422</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2376004087785885</v>
+        <v>0.238768680935778</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3343883812909701</v>
+        <v>0.3292808605568519</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3238424325585502</v>
+        <v>0.3261989258684345</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3360266865971585</v>
+        <v>0.3298105596227578</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4123547936940015</v>
+        <v>0.4115052479270147</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.5702384296287718</v>
+        <v>0.5710058428335391</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.4762581894933376</v>
+        <v>0.4810214406213795</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.4657865238728183</v>
+        <v>0.4618106959945826</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.3362554857064113</v>
+        <v>0.3397252579349523</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.4660921884830063</v>
+        <v>0.4633710579492391</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.4120687154885825</v>
+        <v>0.4133646542212014</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.4131346387727744</v>
+        <v>0.4081445037489717</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3096573414220179</v>
+        <v>0.3112483297153827</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4121193052704523</v>
+        <v>0.4098757444164083</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4081165321105036</v>
+        <v>0.3985910648160345</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4158433324614743</v>
+        <v>0.4134412936083633</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4910804559536816</v>
+        <v>0.4935356034726909</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.6464782540049956</v>
+        <v>0.6454397864231161</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.5564845132603342</v>
+        <v>0.5550600675964817</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.5305848545036521</v>
+        <v>0.5328369596273607</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3926456912925996</v>
+        <v>0.3941644831058988</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.5241362370268199</v>
+        <v>0.519487515700661</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.4665305466401095</v>
+        <v>0.4686607136193492</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.4658291259474333</v>
+        <v>0.4609345096435951</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.5160308726542177</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.5032458685198704</v>
+        <v>0.5032458685198703</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.5668224342742689</v>
@@ -1093,7 +1093,7 @@
         <v>0.6103760467721124</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.6096657397407701</v>
+        <v>0.60966573974077</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.4818179419795451</v>
@@ -1105,7 +1105,7 @@
         <v>0.5633137724609925</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.5577983278788905</v>
+        <v>0.5577983278788906</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3503457824751913</v>
+        <v>0.3518988691675737</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4313397272536316</v>
+        <v>0.4286855037093644</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4756340999781069</v>
+        <v>0.474478404405541</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.465023096197204</v>
+        <v>0.4642555841624982</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.5275589929501109</v>
+        <v>0.5280513084653496</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.6539290573847647</v>
+        <v>0.6517325163509922</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.5717928607329726</v>
+        <v>0.5720423955393742</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.5817192908942995</v>
+        <v>0.5819912722068412</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.4518107986514536</v>
+        <v>0.4493577428855458</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.5518925759537396</v>
+        <v>0.5528523199584067</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.5347102394709873</v>
+        <v>0.5363300968676208</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.5323400917584551</v>
+        <v>0.5314336554184267</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.440953866066449</v>
+        <v>0.443244029446682</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5144246101868769</v>
+        <v>0.5169672408353081</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5618479651237492</v>
+        <v>0.5592837740672343</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.5442213515140493</v>
+        <v>0.54232568462494</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.6117481197276539</v>
+        <v>0.6101609528192155</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.7340671979979222</v>
+        <v>0.7303248009429326</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.651104128551747</v>
+        <v>0.6503530749283165</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.6382177634349027</v>
+        <v>0.6385863653825207</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.5136475682894274</v>
+        <v>0.5144938165931657</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.6148966503388694</v>
+        <v>0.6134922660940434</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.5917055606156837</v>
+        <v>0.5927456330492982</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.5807520048473233</v>
+        <v>0.5806639624991962</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.6835765187834574</v>
+        <v>0.6861684745489643</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.7041743354743635</v>
+        <v>0.7071792123606913</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.6078397667783018</v>
+        <v>0.6079803603218955</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.655465358930412</v>
+        <v>0.6568160146293558</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.7079211243479482</v>
+        <v>0.7079719120021768</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.7928369294133547</v>
+        <v>0.7910010177070682</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.7573977003769284</v>
+        <v>0.7546584247109535</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.7236878454984639</v>
+        <v>0.7215655027762289</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.706500808250467</v>
+        <v>0.7103686769297209</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.7615042919494931</v>
+        <v>0.7608330609203564</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.6946458043556014</v>
+        <v>0.6931419082693014</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.6990892719378399</v>
+        <v>0.6984443218062911</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.7721048132142588</v>
+        <v>0.7724394792966569</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.796046475896014</v>
+        <v>0.7900023669433623</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.6974685989772278</v>
+        <v>0.6975640331240932</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.7297711343580088</v>
+        <v>0.7262458512664087</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.7926578043407678</v>
+        <v>0.7901857494367407</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.8643421752872766</v>
+        <v>0.8621455056941357</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.8323147291869579</v>
+        <v>0.8322684206760257</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.7784861901137052</v>
+        <v>0.7741763030140507</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.7691592447537263</v>
+        <v>0.7707294692589866</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.8184836678065419</v>
+        <v>0.8203838380834159</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.754657022746696</v>
+        <v>0.7529237904018061</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.7425355655026058</v>
+        <v>0.7426836702534367</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.9170283091579404</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.8331863149669477</v>
+        <v>0.8331863149669475</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.8510577695956817</v>
@@ -1377,7 +1377,7 @@
         <v>0.8805307342039623</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.8001161594374303</v>
+        <v>0.8001161594374304</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.7417031589341907</v>
+        <v>0.7415568616012694</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.841859187823751</v>
+        <v>0.8444310948366597</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.7916490091391697</v>
+        <v>0.7968164260913222</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.7277184990442034</v>
+        <v>0.7281123141427982</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.8693556754011192</v>
+        <v>0.8631587523344102</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.8873275275173164</v>
+        <v>0.8855436416737265</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.884540710363407</v>
+        <v>0.8817181406049484</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.8052864068143946</v>
+        <v>0.8071408582591496</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.8221478080450002</v>
+        <v>0.8233353721830096</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.8788496166104302</v>
+        <v>0.8781288770767248</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.8529718119574327</v>
+        <v>0.8548394559952005</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.7768530268992361</v>
+        <v>0.7766713012815308</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.8346715430846302</v>
+        <v>0.8356896915829483</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.9158090097245927</v>
+        <v>0.9155744798436221</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.8757424202279359</v>
+        <v>0.8770760632693297</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.8008506783919337</v>
+        <v>0.7999171905559608</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.9286920747348462</v>
+        <v>0.9271041335330626</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.9446405908374104</v>
+        <v>0.9450385151700349</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.9446671257340775</v>
+        <v>0.9428135853178972</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.8593102797938357</v>
+        <v>0.8582412928509688</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.8774855883908963</v>
+        <v>0.878547135251275</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.9250645143541057</v>
+        <v>0.9263150275080975</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.9034032719451733</v>
+        <v>0.9027479459561952</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.8215978442166225</v>
+        <v>0.8217568900537066</v>
       </c>
     </row>
     <row r="22">
@@ -1501,7 +1501,7 @@
         <v>0.9519060052696724</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.9143285315531992</v>
+        <v>0.9143285315531989</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.9179615636109536</v>
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.8487935225134787</v>
+        <v>0.8489006783847967</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.8972838548439493</v>
+        <v>0.8989502106578765</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.8699754077478576</v>
+        <v>0.8742094371713124</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.8243663048153282</v>
+        <v>0.8278082541234817</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.9001396688563165</v>
+        <v>0.9007893413265202</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.943653879321788</v>
+        <v>0.9432133770790487</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.9231387852181248</v>
+        <v>0.9241301687919072</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.8912315348065184</v>
+        <v>0.8907657495225034</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.889814269381103</v>
+        <v>0.8912883686985935</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.9355521730002426</v>
+        <v>0.9353762875989089</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.9142426649980794</v>
+        <v>0.9167565855619821</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.8744804332132233</v>
+        <v>0.8749041116330428</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.929969339227106</v>
+        <v>0.9284176958322904</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.9613875899891129</v>
+        <v>0.9619053069283756</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9353569957324522</v>
+        <v>0.9408450413452478</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.8936783389662152</v>
+        <v>0.8942579653973801</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.9580843425812553</v>
+        <v>0.9587945223916348</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.9830593756545014</v>
+        <v>0.9833375466619454</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.9717387089529602</v>
+        <v>0.9723415644516969</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.9325752862322613</v>
+        <v>0.9326162182730143</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.9375485147373895</v>
+        <v>0.9391240329006669</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.9697406664543836</v>
+        <v>0.9707235511024708</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.9529258707757612</v>
+        <v>0.9530829746442651</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.9102707772301579</v>
+        <v>0.9111806869862413</v>
       </c>
     </row>
     <row r="25">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.3892629640014501</v>
+        <v>0.3883285284746935</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.4883132980448602</v>
+        <v>0.4847948968854915</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.4812026742259131</v>
+        <v>0.4804309908674266</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.5032021453825413</v>
+        <v>0.502779326685167</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.5682701241541868</v>
+        <v>0.5705344806960155</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.6858565087422758</v>
+        <v>0.6866667273713194</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.6311566353387356</v>
+        <v>0.6322330969634893</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.619365904362322</v>
+        <v>0.6183647945765089</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.4852638120019713</v>
+        <v>0.4858732256264137</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.5920696276823236</v>
+        <v>0.5934886826711058</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.561955432459523</v>
+        <v>0.5622317470692983</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.5679757667926241</v>
+        <v>0.5680388445283928</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.4235719234481347</v>
+        <v>0.4231097182316391</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.5222444836700096</v>
+        <v>0.5208444651202009</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.5137800044849611</v>
+        <v>0.5159076738025561</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.5414555268577151</v>
+        <v>0.5413766916103753</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.6018605811283437</v>
+        <v>0.6037934919219309</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.7189461887262381</v>
+        <v>0.7182192685268474</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.6653283202951705</v>
+        <v>0.6656723996851344</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.6486085641057483</v>
+        <v>0.6466108111255088</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.5095629345803319</v>
+        <v>0.5108830364390604</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.6162763389321386</v>
+        <v>0.6168389854762925</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.5858943776659914</v>
+        <v>0.5876940715109631</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.591576507911068</v>
+        <v>0.5913147141511147</v>
       </c>
     </row>
     <row r="28">
@@ -2011,40 +2011,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>82202</v>
+        <v>82686</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>106936</v>
+        <v>106564</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>75738</v>
+        <v>76060</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>76286</v>
+        <v>76685</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>158857</v>
+        <v>157077</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>190052</v>
+        <v>188850</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>151478</v>
+        <v>152667</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>114559</v>
+        <v>115039</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>249412</v>
+        <v>249825</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>306245</v>
+        <v>302636</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>236630</v>
+        <v>236815</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>202068</v>
+        <v>203204</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>117623</v>
+        <v>117789</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>145385</v>
+        <v>146195</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>112903</v>
+        <v>111228</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>134334</v>
+        <v>134930</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>198019</v>
+        <v>199640</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>229222</v>
+        <v>231040</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>189130</v>
+        <v>190253</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>163603</v>
+        <v>166670</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>303721</v>
+        <v>306926</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>364478</v>
+        <v>360751</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>291050</v>
+        <v>290700</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>281625</v>
+        <v>280258</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>125727</v>
+        <v>125732</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>201692</v>
+        <v>201011</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>169648</v>
+        <v>168838</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>128861</v>
+        <v>129585</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>246773</v>
+        <v>248630</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>333177</v>
+        <v>332390</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>244467</v>
+        <v>243564</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>196634</v>
+        <v>193785</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>385904</v>
+        <v>387635</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>542984</v>
+        <v>544729</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>424008</v>
+        <v>424804</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>339948</v>
+        <v>340173</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>171572</v>
+        <v>173076</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>252188</v>
+        <v>252696</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>214382</v>
+        <v>215574</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>182920</v>
+        <v>185191</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>298278</v>
+        <v>299164</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>378624</v>
+        <v>383525</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>289779</v>
+        <v>290148</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>243013</v>
+        <v>241931</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>456020</v>
+        <v>457142</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>618050</v>
+        <v>618557</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>495288</v>
+        <v>492875</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>412861</v>
+        <v>411986</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>151506</v>
+        <v>152251</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>227402</v>
+        <v>223929</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>216682</v>
+        <v>218259</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>208618</v>
+        <v>204759</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>284419</v>
+        <v>283833</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>404764</v>
+        <v>405309</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>314990</v>
+        <v>318141</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>289784</v>
+        <v>287310</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>446344</v>
+        <v>450949</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>647807</v>
+        <v>644025</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>548250</v>
+        <v>549975</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>513516</v>
+        <v>507314</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>197453</v>
+        <v>198467</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>280263</v>
+        <v>278738</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>273070</v>
+        <v>266696</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>258171</v>
+        <v>256680</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>338720</v>
+        <v>340413</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>458880</v>
+        <v>458143</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>368051</v>
+        <v>367109</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>330098</v>
+        <v>331499</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>521196</v>
+        <v>523212</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>728481</v>
+        <v>722020</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>620711</v>
+        <v>623545</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>579014</v>
+        <v>572931</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>181881</v>
+        <v>182687</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>265109</v>
+        <v>263477</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>307282</v>
+        <v>306536</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>325803</v>
+        <v>325265</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>272032</v>
+        <v>272285</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>402312</v>
+        <v>400960</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>371138</v>
+        <v>371300</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>428661</v>
+        <v>428861</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>467529</v>
+        <v>464990</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>678739</v>
+        <v>679919</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>692517</v>
+        <v>694615</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>765241</v>
+        <v>763938</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>228920</v>
+        <v>230109</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>316174</v>
+        <v>317737</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>362981</v>
+        <v>361324</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>381291</v>
+        <v>379963</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>315443</v>
+        <v>314625</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>451614</v>
+        <v>449312</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>422617</v>
+        <v>422129</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>470294</v>
+        <v>470565</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>531517</v>
+        <v>532393</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>756224</v>
+        <v>754497</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>766333</v>
+        <v>767680</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>834833</v>
+        <v>834707</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>264346</v>
+        <v>265348</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>301629</v>
+        <v>302916</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>290498</v>
+        <v>290565</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>399405</v>
+        <v>400228</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>285990</v>
+        <v>286011</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>355032</v>
+        <v>354210</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>376312</v>
+        <v>374951</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>439603</v>
+        <v>438314</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>558627</v>
+        <v>561686</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>667187</v>
+        <v>666599</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>677118</v>
+        <v>675652</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>850648</v>
+        <v>849863</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>298581</v>
+        <v>298710</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>340982</v>
+        <v>338393</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>333333</v>
+        <v>333378</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>444683</v>
+        <v>442535</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>320223</v>
+        <v>319224</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>387052</v>
+        <v>386069</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>413535</v>
+        <v>413512</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>472890</v>
+        <v>470272</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>608171</v>
+        <v>609413</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>717110</v>
+        <v>718774</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>735615</v>
+        <v>733925</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>903513</v>
+        <v>903693</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>217010</v>
+        <v>216967</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>260796</v>
+        <v>261593</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>264672</v>
+        <v>266400</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>296240</v>
+        <v>296400</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>298132</v>
+        <v>296006</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>314110</v>
+        <v>313479</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>334146</v>
+        <v>333080</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>353654</v>
+        <v>354469</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>522489</v>
+        <v>523244</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>583365</v>
+        <v>582886</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>607394</v>
+        <v>608724</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>657409</v>
+        <v>657255</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>244211</v>
+        <v>244509</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>283705</v>
+        <v>283632</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>292787</v>
+        <v>293233</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>326010</v>
+        <v>325630</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>318480</v>
+        <v>317936</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>334399</v>
+        <v>334540</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>356859</v>
+        <v>356159</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>377380</v>
+        <v>376910</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>557657</v>
+        <v>558332</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>614041</v>
+        <v>614871</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>643306</v>
+        <v>642840</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>695274</v>
+        <v>695408</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>178147</v>
+        <v>178170</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>224187</v>
+        <v>224604</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>223582</v>
+        <v>224670</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>255717</v>
+        <v>256784</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>300564</v>
+        <v>300781</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>367062</v>
+        <v>366890</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>369412</v>
+        <v>369808</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>413537</v>
+        <v>413321</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>483873</v>
+        <v>484675</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>597659</v>
+        <v>597546</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>600810</v>
+        <v>602462</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>677026</v>
+        <v>677354</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>195185</v>
+        <v>194859</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>240204</v>
+        <v>240333</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>240385</v>
+        <v>241795</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>277217</v>
+        <v>277397</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>319912</v>
+        <v>320149</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>382389</v>
+        <v>382498</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>388860</v>
+        <v>389101</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>432721</v>
+        <v>432740</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>509830</v>
+        <v>510687</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>619499</v>
+        <v>620127</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>626231</v>
+        <v>626335</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>704735</v>
+        <v>705440</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>1275041</v>
+        <v>1271980</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>1671005</v>
+        <v>1658965</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>1633370</v>
+        <v>1630751</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>1777693</v>
+        <v>1776200</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>1920297</v>
+        <v>1927948</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>2438499</v>
+        <v>2441380</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>2237161</v>
+        <v>2240977</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>2312242</v>
+        <v>2308505</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>3229296</v>
+        <v>3233351</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>4131107</v>
+        <v>4141009</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>3899348</v>
+        <v>3901265</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>4126914</v>
+        <v>4127372</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>1387420</v>
+        <v>1385906</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>1787117</v>
+        <v>1782327</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>1743949</v>
+        <v>1751171</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>1912834</v>
+        <v>1912555</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>2033805</v>
+        <v>2040337</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>2556146</v>
+        <v>2553562</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>2358284</v>
+        <v>2359504</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>2421412</v>
+        <v>2413954</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>3391000</v>
+        <v>3399785</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>4300007</v>
+        <v>4303933</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>4065458</v>
+        <v>4077946</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>4298397</v>
+        <v>4296494</v>
       </c>
     </row>
     <row r="36">
